--- a/Spreadsheets/example.xlsx
+++ b/Spreadsheets/example.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="1920" yWindow="1400" windowWidth="26020" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>width</t>
   </si>
   <si>
-    <t>length</t>
-  </si>
-  <si>
     <t>Coupon series</t>
   </si>
   <si>
@@ -42,12 +44,6 @@
     <t>UT-NE</t>
   </si>
   <si>
-    <t>circularCoupons</t>
-  </si>
-  <si>
-    <t>rectangularCoupons</t>
-  </si>
-  <si>
     <t>blade width (leave blank)</t>
   </si>
   <si>
@@ -72,17 +68,45 @@
     <t>CU-NC</t>
   </si>
   <si>
-    <t>panel</t>
+    <t>Rectangular Coupons</t>
+  </si>
+  <si>
+    <t>Circular Coupons</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>length (inches)</t>
+  </si>
+  <si>
+    <t>width (inches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +129,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,199 +446,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C20" s="1">
         <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1.25</v>
-      </c>
-      <c r="D8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Spreadsheets/example.xlsx
+++ b/Spreadsheets/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1400" windowWidth="26020" windowHeight="13040"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>UT-NE</t>
   </si>
   <si>
-    <t>blade width (leave blank)</t>
-  </si>
-  <si>
     <t>Defaults</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>width (inches)</t>
+  </si>
+  <si>
+    <t>blade width (leave blank if same)</t>
   </si>
 </sst>
 </file>
@@ -129,8 +129,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,15 +148,17 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +455,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -459,22 +463,21 @@
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>7.0000000000000007E-2</v>
@@ -482,7 +485,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1.4999999999999999E-2</v>
@@ -490,18 +493,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,7 +520,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -534,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -581,7 +584,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -592,15 +595,15 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>

--- a/Spreadsheets/example.xlsx
+++ b/Spreadsheets/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,24 +141,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -468,7 +473,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -476,7 +481,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
@@ -484,26 +489,29 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+    </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -519,24 +527,24 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -582,37 +590,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection password="DE8D" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
